--- a/aa.xlsx
+++ b/aa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="10080"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16605" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,150 +19,254 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>レア度</t>
+  </si>
+  <si>
+    <t>細胞膜</t>
+  </si>
+  <si>
+    <t>細胞を包む薄い膜で、物質の進出や排出を制御します。</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>細胞質</t>
+  </si>
+  <si>
+    <t>細胞膜と核の間に位置し、細胞内の多くの化学反応が行われる液体の部分です。</t>
+  </si>
+  <si>
+    <t>核</t>
+  </si>
+  <si>
+    <t>細胞の中心に位置し、DNAが収納される制御中心です。</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>デオキシリボ核酸の略で、生物の遺伝情報を保持する分子です。</t>
+  </si>
+  <si>
+    <t>ミトコンドリア</t>
+  </si>
+  <si>
+    <t>細胞内でのエネルギー生産が行われる器官で、細胞呼吸が行われます。</t>
+  </si>
+  <si>
+    <t>葉緑体</t>
+  </si>
+  <si>
+    <t>光合成が行われる場所で、光エネルギーを化学エネルギーに変換します。</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>細胞分裂</t>
+  </si>
+  <si>
+    <t>1つの細胞が2つの新しい細胞に分かれるプロセスです。</t>
+  </si>
+  <si>
+    <t>遺伝子</t>
+  </si>
+  <si>
+    <t>特定の形質をコード化するDNAの一部分です。</t>
+  </si>
+  <si>
+    <t>リボソーム</t>
+  </si>
+  <si>
+    <t>タンパク質合成の場所であり、細胞内に存在し、タンパク質合成に関与します。</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>細胞壁</t>
+  </si>
+  <si>
+    <t>植物細胞や菌類細胞を支える堅い壁です。</t>
+  </si>
+  <si>
+    <t>酸素</t>
+  </si>
+  <si>
+    <t>生化学反応を促進するタンパク質で、触媒として機能します。</t>
+  </si>
+  <si>
+    <t>分子</t>
+  </si>
+  <si>
+    <t>2つ以上の原子が化学的に結合した粒子です。</t>
+  </si>
+  <si>
+    <t>表現型</t>
+  </si>
+  <si>
+    <t>遺伝子型に基づいて現れる個体の外観や特性です。</t>
+  </si>
+  <si>
+    <t>窒素循環</t>
+  </si>
+  <si>
+    <t>窒素が生物体や環境の間で循環するプロセスです。</t>
+  </si>
+  <si>
+    <t>窒素固定</t>
+  </si>
+  <si>
+    <t>窒素を無機形態から有機形態に変換するプロセスです。</t>
+  </si>
+  <si>
+    <t>温血動物</t>
+  </si>
+  <si>
+    <t>恒温動物とも呼ばれ、外部の温度変化にかかわらず一定の体温を維持する動物です。</t>
+  </si>
+  <si>
+    <t>細胞周期</t>
+  </si>
+  <si>
+    <t>細胞の成長と分裂を含む周期的なプロセスです。</t>
+  </si>
+  <si>
+    <t>細胞分子</t>
+  </si>
+  <si>
+    <t>細胞が特定の形態や機能を持つようになる過程です。</t>
+  </si>
+  <si>
+    <t>細胞接着</t>
+  </si>
+  <si>
+    <t>細胞が結合して組織や器官を形成するプロセスです。</t>
+  </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>単語</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>レア度</t>
-  </si>
-  <si>
-    <t>細胞膜</t>
-  </si>
-  <si>
-    <t>細胞を包む薄い膜で、物質の進出や排出を制御します。</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>細胞質</t>
-  </si>
-  <si>
-    <t>細胞膜と核の間に位置し、細胞内の多くの化学反応が行われる液体の部分です。</t>
-  </si>
-  <si>
-    <t>核</t>
-  </si>
-  <si>
-    <t>細胞の中心に位置し、DNAが収納される制御中心です。</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>デオキシリボ核酸の略で、生物の遺伝情報を保持する分子です。</t>
-  </si>
-  <si>
-    <t>ミトコンドリア</t>
-  </si>
-  <si>
-    <t>細胞内でのエネルギー生産が行われる器官で、細胞呼吸が行われます。</t>
-  </si>
-  <si>
-    <t>葉緑体</t>
-  </si>
-  <si>
-    <t>光合成が行われる場所で、光エネルギーを化学エネルギーに変換します。</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>細胞分裂</t>
-  </si>
-  <si>
-    <t>1つの細胞が2つの新しい細胞に分かれるプロセスです。</t>
-  </si>
-  <si>
-    <t>遺伝子</t>
-  </si>
-  <si>
-    <t>特定の形質をコード化するDNAの一部分です。</t>
-  </si>
-  <si>
-    <t>リボソーム</t>
-  </si>
-  <si>
-    <t>タンパク質合成の場所であり、細胞内に存在し、タンパク質合成に関与します。</t>
-  </si>
-  <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>細胞壁</t>
-  </si>
-  <si>
-    <t>植物細胞や菌類細胞を支える堅い壁です。</t>
-  </si>
-  <si>
-    <t>酸素</t>
-  </si>
-  <si>
-    <t>生化学反応を促進するタンパク質で、触媒として機能します。</t>
-  </si>
-  <si>
-    <t>分子</t>
-  </si>
-  <si>
-    <t>2つ以上の原子が化学的に結合した粒子です。</t>
-  </si>
-  <si>
-    <t>表現型</t>
-  </si>
-  <si>
-    <t>遺伝子型に基づいて現れる個体の外観や特性です。</t>
-  </si>
-  <si>
-    <t>窒素循環</t>
-  </si>
-  <si>
-    <t>窒素が生物体や環境の間で循環するプロセスです。</t>
-  </si>
-  <si>
-    <t>窒素固定</t>
-  </si>
-  <si>
-    <t>窒素を無機形態から有機形態に変換するプロセスです。</t>
-  </si>
-  <si>
-    <t>温血動物</t>
-  </si>
-  <si>
-    <t>恒温動物とも呼ばれ、外部の温度変化にかかわらず一定の体温を維持する動物です。</t>
-  </si>
-  <si>
-    <t>細胞周期</t>
-  </si>
-  <si>
-    <t>細胞の成長と分裂を含む周期的なプロセスです。</t>
-  </si>
-  <si>
-    <t>細胞分子</t>
-  </si>
-  <si>
-    <t>細胞が特定の形態や機能を持つようになる過程です。</t>
-  </si>
-  <si>
-    <t>細胞接着</t>
-  </si>
-  <si>
-    <t>細胞が結合して組織や器官を形成するプロセスです。</t>
-  </si>
-  <si>
-    <t>細胞骨格</t>
-  </si>
-  <si>
-    <t>細胞内の構造を支え、細胞運動や形態の維持に関与するタンパク質の架橋ネットワークです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴルジ体</t>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンパク質や脂質を加工、分泌する細胞小器官です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内質網</t>
+    <rPh sb="0" eb="1">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小胞体</t>
+    <rPh sb="0" eb="3">
+      <t>ショウホウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心体</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>液胞</t>
+    <rPh sb="0" eb="2">
+      <t>エキホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロロフィル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソソーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分裂</t>
+    <rPh sb="0" eb="2">
+      <t>ブンレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞質骨格</t>
+    <rPh sb="2" eb="3">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞内の構造を支えるためのネットワークで、細胞の形状や運動性に関与します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリコーゲン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>核膜</t>
+    <rPh sb="0" eb="2">
+      <t>カクマク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴルジ体と連携してタンパク質合成や修飾を行う膜系の構造です。</t>
+  </si>
+  <si>
+    <t>タンパク質や脂質の貯蔵、輸送を行う細胞小器官です。</t>
+  </si>
+  <si>
+    <t>細胞分裂に関与し、紡錘糸の形成に重要な役割を果たします。</t>
+  </si>
+  <si>
+    <t>液体を貯蔵する細胞小器官で、植物細胞などによく見られます。</t>
+  </si>
+  <si>
+    <t>葉緑体内に含まれる緑色の色素で、光合成反応に関与します。</t>
+  </si>
+  <si>
+    <t>消化酵素を含む小胞で、老廃物の分解や細胞内のリサイクルを担います。</t>
+  </si>
+  <si>
+    <t>細胞が増殖する際に行われるプロセスで、核と細胞質が分割されます。</t>
+  </si>
+  <si>
+    <t>糖を貯蔵する多糖類で、エネルギーの貯蔵や供給に関与します。</t>
+  </si>
+  <si>
+    <t>核を包む二重膜で、核と細胞質を分離します。</t>
   </si>
 </sst>
 </file>
@@ -487,26 +591,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -514,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -528,13 +636,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -542,13 +650,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -556,13 +664,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -570,13 +678,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -584,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -598,13 +706,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -612,13 +720,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -626,13 +734,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -640,13 +748,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -654,13 +762,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -668,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -682,13 +790,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -696,13 +804,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -710,13 +818,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -724,13 +832,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -738,13 +846,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -752,13 +860,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -766,13 +874,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -780,13 +888,123 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16605" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>単語</t>
   </si>
@@ -267,6 +267,22 @@
   </si>
   <si>
     <t>核を包む二重膜で、核と細胞質を分離します。</t>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -593,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -907,6 +923,9 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
@@ -918,6 +937,9 @@
       <c r="C23" t="s">
         <v>59</v>
       </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
@@ -929,6 +951,9 @@
       <c r="C24" t="s">
         <v>60</v>
       </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
@@ -940,6 +965,9 @@
       <c r="C25" t="s">
         <v>61</v>
       </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
@@ -951,6 +979,9 @@
       <c r="C26" t="s">
         <v>62</v>
       </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
@@ -962,6 +993,9 @@
       <c r="C27" t="s">
         <v>63</v>
       </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
@@ -973,6 +1007,9 @@
       <c r="C28" t="s">
         <v>64</v>
       </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
@@ -984,6 +1021,9 @@
       <c r="C29" t="s">
         <v>65</v>
       </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
@@ -995,6 +1035,9 @@
       <c r="C30" t="s">
         <v>66</v>
       </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
@@ -1005,6 +1048,9 @@
       </c>
       <c r="C31" t="s">
         <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -609,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
